--- a/dashboard/Data/Renewables.xlsx
+++ b/dashboard/Data/Renewables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>OSEMOSYS</t>
   </si>
@@ -30,52 +30,61 @@
     <t>Use</t>
   </si>
   <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Solar - centralised</t>
+  </si>
+  <si>
+    <t>Wind turbines</t>
+  </si>
+  <si>
+    <t>Solar - decentralised</t>
+  </si>
+  <si>
+    <t>PWR_GEO_001</t>
+  </si>
+  <si>
+    <t>PWR_HYD_001</t>
+  </si>
+  <si>
+    <t>PWR_SOL_E001</t>
+  </si>
+  <si>
+    <t>PWR_WND_E001</t>
+  </si>
+  <si>
+    <t>PWR_SOL_002</t>
+  </si>
+  <si>
+    <t>PWR_SOL_003</t>
+  </si>
+  <si>
+    <t>Centralised electricity supply</t>
+  </si>
+  <si>
+    <t>Decentralised supply for new users</t>
+  </si>
+  <si>
+    <t>Decentralised supply for existing users</t>
+  </si>
+  <si>
+    <t>Solar thermal</t>
+  </si>
+  <si>
+    <t>RES_CWH_SOLAR</t>
+  </si>
+  <si>
+    <t>Water heating</t>
+  </si>
+  <si>
     <t>Biomass</t>
   </si>
   <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>Hydro</t>
-  </si>
-  <si>
-    <t>Solar - centralised</t>
-  </si>
-  <si>
-    <t>Wind turbines</t>
-  </si>
-  <si>
-    <t>Solar - decentralised</t>
-  </si>
-  <si>
     <t>PWR_BIO_001</t>
-  </si>
-  <si>
-    <t>PWR_GEO_001</t>
-  </si>
-  <si>
-    <t>PWR_HYD_001</t>
-  </si>
-  <si>
-    <t>PWR_SOL_E001</t>
-  </si>
-  <si>
-    <t>PWR_WND_E001</t>
-  </si>
-  <si>
-    <t>PWR_SOL_002</t>
-  </si>
-  <si>
-    <t>PWR_SOL_003</t>
-  </si>
-  <si>
-    <t>Centralised electricity supply</t>
-  </si>
-  <si>
-    <t>Decentralised supply for new users</t>
-  </si>
-  <si>
-    <t>Decentralised supply for existing users</t>
   </si>
 </sst>
 </file>
@@ -433,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,79 +473,90 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard/Data/Renewables.xlsx
+++ b/dashboard/Data/Renewables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>OSEMOSYS</t>
   </si>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t>Decentralised supply for existing users</t>
-  </si>
-  <si>
-    <t>Solar thermal</t>
-  </si>
-  <si>
-    <t>RES_CWH_SOLAR</t>
-  </si>
-  <si>
-    <t>Water heating</t>
   </si>
   <si>
     <t>Biomass</t>
@@ -442,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,10 +464,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -546,17 +537,6 @@
       </c>
       <c r="C8" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard/Data/Renewables.xlsx
+++ b/dashboard/Data/Renewables.xlsx
@@ -24,9 +24,6 @@
     <t>OSEMOSYS</t>
   </si>
   <si>
-    <t>VISUALIZATION</t>
-  </si>
-  <si>
     <t>Use</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>PWR_BIO_001</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,13 +449,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -464,79 +464,79 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard/Data/Renewables.xlsx
+++ b/dashboard/Data/Renewables.xlsx
@@ -75,7 +75,7 @@
     <t>PWR_BIO_001</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
